--- a/data/siRNA_bench/VectorBuilder_siRNA_PAX3_jbst.xlsx
+++ b/data/siRNA_bench/VectorBuilder_siRNA_PAX3_jbst.xlsx
@@ -523,12 +523,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TTTATTGCTCCAGGTCTTCCT</t>
+          <t>AATTTACTTCTCAGGATGCGG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['TTTATTGCTCCAGGTCTTCCT']</t>
+          <t>['AATTTACTTCTCAGGATGCGG']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>AGGAAGACCTGGAGCAATAAA</t>
+          <t>CCGCATCCTGAGAAGTAAATT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.29</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="3">
@@ -671,18 +671,18 @@
         <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.76</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TATTTAGGAGGTCCTTTACAG</t>
+          <t>TTATATCCAGGTGAAGGCGAA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['TATTTAGGAGGTCCTTTACAG']</t>
+          <t>['TTATATCCAGGTGAAGGCGAA']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CTGTAAAGGACCTCCTAAATA</t>
+          <t>TTCGCCTTCACCTGGATATAA</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -745,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.81</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATAAATGTCAGGGTAATGAGT</t>
+          <t>TTTATTGCTCCAGGTCTTCCT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['ATAAATGTCAGGGTAATGAGT']</t>
+          <t>['TTTATTGCTCCAGGTCTTCCT']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -802,15 +802,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('AGG', 'TCC')]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ACTCATTACCCTGACATTTAT</t>
+          <t>AGGAAGACCTGGAGCAATAAA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -822,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.57</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AATTTACTTCTCAGGATGCGG</t>
+          <t>TATTTAGGAGGTCCTTTACAG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['AATTTACTTCTCAGGATGCGG']</t>
+          <t>['TATTTAGGAGGTCCTTTACAG']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -879,15 +879,15 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('AGGA', 'TCCT')]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CCGCATCCTGAGAAGTAAATT</t>
+          <t>CTGTAAAGGACCTCCTAAATA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -899,21 +899,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.81</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TAATTTGTCTCGGATTTCCCA</t>
+          <t>ATAAATGTCAGGGTAATGAGT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['TAATTTGTCTCGGATTTCCCA']</t>
+          <t>['ATAAATGTCAGGGTAATGAGT']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,15 +956,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('TCA', 'AGT')]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>TGGGAAATCCGAGACAAATTA</t>
+          <t>ACTCATTACCCTGACATTTAT</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.29</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="8">
@@ -1033,11 +1033,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('ATT', 'TAA')]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1056,18 +1056,18 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.29</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TTATATCGCCTTGGGCATTGC</t>
+          <t>AATTATCTGATCTGGTCTCTA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['TTATATCGCCTTGGGCATTGC']</t>
+          <t>['AATTATCTGATCTGGTCTCTA']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1110,15 +1110,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['ATAT', 'TATA']</t>
+          <t>[('ATC', 'TAG')]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>GCAATGCCCAAGGCGATATAA</t>
+          <t>TAGAGACCAGATCAGATAATT</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>28.81</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AATTATCTGATCTGGTCTCTA</t>
+          <t>TAATTTGTCTCGGATTTCCCA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['AATTATCTGATCTGGTCTCTA']</t>
+          <t>['TAATTTGTCTCGGATTTCCCA']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1187,15 +1187,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['AATT', 'GATC']</t>
+          <t>[('AAT', 'TTA'), ('GGA', 'CCT')]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>TAGAGACCAGATCAGATAATT</t>
+          <t>TGGGAAATCCGAGACAAATTA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1207,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.29</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TTATATCCAGGTGAAGGCGAA</t>
+          <t>TTATATCGCCTTGGGCATTGC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['TTATATCCAGGTGAAGGCGAA']</t>
+          <t>['TTATATCGCCTTGGGCATTGC']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['ATAT', 'TATA']</t>
+          <t>[('GCC', 'CGG'), ('GCA', 'CGT')]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>TTCGCCTTCACCTGGATATAA</t>
+          <t>GCAATGCCCAAGGCGATATAA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>31.57</v>
+        <v>47.62</v>
       </c>
     </row>
   </sheetData>
